--- a/medicine/Œil et vue/Capsule_de_Tenon/Capsule_de_Tenon.xlsx
+++ b/medicine/Œil et vue/Capsule_de_Tenon/Capsule_de_Tenon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La capsule de Tenon, ou gaine de Tenon, est la membrane qui entoure le globe oculaire et le cône rétrobulbaire.
 Elle est constituée de deux feuillets. Le premier, la capsule proprement dite, entoure la partie arrière du globe en doublant la sclère depuis le nerf optique jusqu'au limbe scléro-cornéen. Le second se fond avec les aponévroses des muscles oculomoteurs, et délimite le cône rétrobulbaire qui sépare la graisse intraconique de la graisse extraconique. 
@@ -515,7 +527,9 @@
           <t>voir aussi</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">muscles de l'orbite
 oculomotricité
